--- a/excel_templates/TOFD_PE/T_报表生成.xlsx
+++ b/excel_templates/TOFD_PE/T_报表生成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UnionOffline\UnionOffline\excel_templates\TOFD_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744A127-4264-4752-8F0E-4A04F22E0E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D0A39-B39A-4C84-B025-B8ACFC81A881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>扫查参数列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,6 +736,10 @@
       </rPr>
       <t>{PeProbeSize}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;"name":"TOFD/PE","width": 1105&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,43 +923,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,27 +987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA594C7-9B34-4D53-8E8D-A7AF1BAADDA8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,268 +1315,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1587,5 +1587,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>